--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,35</t>
+          <t>-1,03; 5,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 12,57</t>
+          <t>2,27; 13,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 12,37</t>
+          <t>1,05; 12,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 14,29</t>
+          <t>2,85; 15,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,6</t>
+          <t>1,97; 13,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 11,97</t>
+          <t>3,6; 11,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,56</t>
+          <t>1,86; 8,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,06</t>
+          <t>3,39; 10,64</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,13</t>
+          <t>3,66; 10,35</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,01; —</t>
+          <t>3,29; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,08; —</t>
+          <t>75,49; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,17; —</t>
+          <t>111,04; —</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,57</t>
+          <t>1,11; 5,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,03</t>
+          <t>-0,65; 3,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,03</t>
+          <t>2,47; 7,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 12,44</t>
+          <t>5,93; 12,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,49</t>
+          <t>1,68; 6,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,32</t>
+          <t>2,67; 6,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,15</t>
+          <t>4,4; 8,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,24</t>
+          <t>1,19; 4,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,1</t>
+          <t>3,11; 6,11</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 441,9</t>
+          <t>34,59; 523,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 233,98</t>
+          <t>-27,93; 276,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,45; 523,84</t>
+          <t>71,96; 587,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>180,9; 886,84</t>
+          <t>169,19; 917,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 449,09</t>
+          <t>43,37; 498,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,64; 478,3</t>
+          <t>69,61; 550,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>152,59; 550,14</t>
+          <t>175,5; 544,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 281,67</t>
+          <t>40,37; 272,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>103,17; 397,45</t>
+          <t>112,46; 417,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,61</t>
+          <t>-1,19; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,43</t>
+          <t>-2,91; 0,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,61</t>
+          <t>-2,08; 1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,19</t>
+          <t>1,49; 5,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,97</t>
+          <t>-2,07; 1,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,87</t>
+          <t>1,03; 4,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,69</t>
+          <t>0,9; 3,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,63</t>
+          <t>-1,86; 0,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,73</t>
+          <t>-0,12; 2,53</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 83,32</t>
+          <t>-25,79; 88,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 16,34</t>
+          <t>-59,08; 11,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 51,35</t>
+          <t>-42,18; 49,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,73; 189,85</t>
+          <t>23,21; 171,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 61,69</t>
+          <t>-39,3; 54,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 150,55</t>
+          <t>15,84; 144,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,24; 104,67</t>
+          <t>17,84; 109,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 18,54</t>
+          <t>-38,75; 18,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 77,79</t>
+          <t>-2,41; 72,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,78</t>
+          <t>-1,62; 2,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,17</t>
+          <t>-1,99; 2,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,33</t>
+          <t>-0,35; 4,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,77</t>
+          <t>0,62; 5,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,25</t>
+          <t>-2,68; 1,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,8</t>
+          <t>-2,35; 2,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,61</t>
+          <t>0,33; 3,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,64</t>
+          <t>-1,48; 1,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,02</t>
+          <t>-0,52; 3,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 122,67</t>
+          <t>-36,75; 125,49</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 95,85</t>
+          <t>-45,16; 104,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 182,03</t>
+          <t>-11,24; 181,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 130,93</t>
+          <t>7,55; 136,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 54,28</t>
+          <t>-41,08; 48,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 62,45</t>
+          <t>-34,44; 67,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,6; 99,36</t>
+          <t>6,19; 104,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 43,12</t>
+          <t>-27,49; 48,99</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 84,89</t>
+          <t>-8,49; 89,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,19</t>
+          <t>-0,46; 3,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,37</t>
+          <t>-1,0; 2,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,77</t>
+          <t>1,02; 4,83</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,42</t>
+          <t>0,67; 5,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,8</t>
+          <t>-2,76; 1,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,7</t>
+          <t>-0,67; 3,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,9</t>
+          <t>0,82; 3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,52</t>
+          <t>-1,39; 1,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,53</t>
+          <t>0,81; 3,76</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 131,73</t>
+          <t>-12,86; 139,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 103,01</t>
+          <t>-23,66; 102,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,65; 191,93</t>
+          <t>18,24; 202,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,82; 91,71</t>
+          <t>7,16; 102,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 31,78</t>
+          <t>-33,68; 32,99</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 66,05</t>
+          <t>-7,96; 59,34</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,59; 86,49</t>
+          <t>13,16; 86,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 35,26</t>
+          <t>-23,84; 34,02</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,43; 80,81</t>
+          <t>14,37; 87,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,52; 2,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,66; 1,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,07</t>
+          <t>1,09; 3,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,13; 5,65</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,38; 1,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,52</t>
+          <t>1,23; 3,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,22; 3,94</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,24; 1,2</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,6; 3,03</t>
+          <t>1,53; 3,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>13,47; 89,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,31; 43,99</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,69; 113,2</t>
+          <t>29,14; 110,52</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>58,54; 131,86</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-6,92; 42,43</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,45; 81,86</t>
+          <t>22,72; 80,43</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>51,51; 108,9</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-5,57; 32,7</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>36,53; 82,88</t>
+          <t>35,49; 83,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 5,95</t>
+          <t>-1,17; 5,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 13,17</t>
+          <t>2,44; 13,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 12,77</t>
+          <t>0,7; 12,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,08</t>
+          <t>2,89; 14,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,97; 13,83</t>
+          <t>1,9; 14,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,41</t>
+          <t>3,74; 11,56</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,86; 8,61</t>
+          <t>1,81; 8,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 10,64</t>
+          <t>3,27; 11,65</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 10,35</t>
+          <t>3,84; 10,4</t>
         </is>
       </c>
     </row>
@@ -821,24 +821,24 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,29; —</t>
+          <t>27,91; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,49; —</t>
+          <t>83,45; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>111,04; —</t>
+          <t>114,36; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,87</t>
+          <t>1,05; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,13</t>
+          <t>-0,62; 3,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,02</t>
+          <t>2,37; 7,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 12,35</t>
+          <t>6,36; 12,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,68</t>
+          <t>1,43; 6,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 6,68</t>
+          <t>2,52; 6,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,04</t>
+          <t>4,6; 8,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,24</t>
+          <t>0,98; 4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,11; 6,11</t>
+          <t>3,12; 6,1</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,59; 523,94</t>
+          <t>20,93; 438,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 276,68</t>
+          <t>-27,07; 253,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,96; 587,89</t>
+          <t>70,02; 573,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>169,19; 917,01</t>
+          <t>174,41; 900,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,37; 498,1</t>
+          <t>39,49; 464,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>69,61; 550,72</t>
+          <t>60,23; 507,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>175,5; 544,29</t>
+          <t>164,06; 533,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,37; 272,16</t>
+          <t>33,03; 252,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>112,46; 417,08</t>
+          <t>109,56; 402,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,78</t>
+          <t>-1,15; 2,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 0,27</t>
+          <t>-3,03; 0,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,55</t>
+          <t>-2,1; 1,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,96</t>
+          <t>1,42; 5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,93</t>
+          <t>-1,79; 2,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,75</t>
+          <t>0,99; 4,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,75</t>
+          <t>0,91; 3,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,68</t>
+          <t>-1,97; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,53</t>
+          <t>-0,05; 2,75</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 88,67</t>
+          <t>-22,35; 91,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 11,11</t>
+          <t>-60,32; 15,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 49,05</t>
+          <t>-42,71; 47,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,21; 171,08</t>
+          <t>26,32; 181,9</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 54,08</t>
+          <t>-32,71; 58,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 144,36</t>
+          <t>17,42; 147,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,84; 109,63</t>
+          <t>17,14; 104,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,75; 18,73</t>
+          <t>-42,68; 15,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 72,79</t>
+          <t>-0,01; 78,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,93</t>
+          <t>-1,52; 2,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 2,24</t>
+          <t>-1,79; 2,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,28</t>
+          <t>-0,18; 4,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 5,92</t>
+          <t>0,46; 6,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,98</t>
+          <t>-3,02; 1,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,9</t>
+          <t>-2,13; 3,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,58</t>
+          <t>0,01; 3,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,77</t>
+          <t>-1,66; 1,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,02</t>
+          <t>-0,55; 2,89</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,75; 125,49</t>
+          <t>-34,05; 127,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 104,62</t>
+          <t>-41,82; 95,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 181,03</t>
+          <t>-7,41; 176,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,55; 136,83</t>
+          <t>6,1; 136,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,08; 48,15</t>
+          <t>-45,26; 41,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,44; 67,02</t>
+          <t>-31,36; 68,14</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,19; 104,36</t>
+          <t>-0,23; 96,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 48,99</t>
+          <t>-33,64; 42,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 89,33</t>
+          <t>-9,82; 80,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,34</t>
+          <t>-0,23; 3,34</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,41</t>
+          <t>-0,96; 2,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,83</t>
+          <t>0,99; 4,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 5,84</t>
+          <t>0,39; 5,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,76</t>
+          <t>-2,87; 1,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,38</t>
+          <t>-0,8; 3,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,83</t>
+          <t>0,75; 3,94</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,47</t>
+          <t>-1,33; 1,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,81; 3,76</t>
+          <t>0,68; 3,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 139,05</t>
+          <t>-8,21; 130,46</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,66; 102,28</t>
+          <t>-24,42; 104,36</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,24; 202,5</t>
+          <t>18,62; 187,16</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,16; 102,46</t>
+          <t>3,86; 92,42</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 32,99</t>
+          <t>-35,29; 31,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 59,34</t>
+          <t>-10,05; 60,17</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>13,16; 86,59</t>
+          <t>12,85; 89,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 34,02</t>
+          <t>-23,06; 35,94</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>14,37; 87,3</t>
+          <t>11,23; 82,87</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,47</t>
+          <t>0,44; 2,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,21</t>
+          <t>-0,61; 1,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,07</t>
+          <t>1,09; 3,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,65</t>
+          <t>3,24; 5,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 1,78</t>
+          <t>-0,48; 1,74</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,48</t>
+          <t>1,24; 3,42</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,94</t>
+          <t>2,16; 3,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,2</t>
+          <t>-0,22; 1,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,53; 3,01</t>
+          <t>1,61; 3,01</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,47; 89,0</t>
+          <t>11,73; 87,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-18,31; 43,99</t>
+          <t>-17,68; 41,12</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,14; 110,52</t>
+          <t>29,9; 110,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>58,54; 131,86</t>
+          <t>57,19; 128,34</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 42,43</t>
+          <t>-8,71; 40,31</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>22,72; 80,43</t>
+          <t>23,13; 79,6</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>51,51; 108,9</t>
+          <t>48,08; 100,33</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 32,7</t>
+          <t>-5,17; 31,82</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>35,49; 83,14</t>
+          <t>36,63; 81,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,99</t>
+          <t>-1,22; 5,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 13,02</t>
+          <t>2,1; 12,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 12,32</t>
+          <t>0,62; 12,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,89; 14,72</t>
+          <t>2,95; 14,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 14,06</t>
+          <t>1,82; 13,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,56</t>
+          <t>3,76; 11,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 8,23</t>
+          <t>2,08; 8,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,65</t>
+          <t>3,21; 11,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,4</t>
+          <t>3,46; 10,13</t>
         </is>
       </c>
     </row>
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,91; —</t>
+          <t>31,01; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,45; —</t>
+          <t>74,08; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>114,36; —</t>
+          <t>94,17; —</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,6</t>
+          <t>1,13; 5,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,01</t>
+          <t>-0,66; 3,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,35</t>
+          <t>2,32; 7,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,36; 12,31</t>
+          <t>6,3; 12,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,43; 6,46</t>
+          <t>1,74; 6,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 6,51</t>
+          <t>2,36; 6,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,17</t>
+          <t>4,42; 8,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,06</t>
+          <t>1,22; 4,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,1</t>
+          <t>3,09; 6,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 438,67</t>
+          <t>33,55; 441,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,07; 253,51</t>
+          <t>-29,46; 233,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70,02; 573,61</t>
+          <t>64,45; 523,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>174,41; 900,09</t>
+          <t>180,9; 886,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,49; 464,55</t>
+          <t>45,94; 449,09</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,23; 507,47</t>
+          <t>62,64; 478,3</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>164,06; 533,31</t>
+          <t>152,59; 550,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,03; 252,22</t>
+          <t>42,49; 281,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>109,56; 402,49</t>
+          <t>103,17; 397,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 2,72</t>
+          <t>-1,39; 2,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 0,38</t>
+          <t>-2,96; 0,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 1,48</t>
+          <t>-1,98; 1,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,94</t>
+          <t>1,56; 6,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,04</t>
+          <t>-1,83; 1,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,76</t>
+          <t>0,96; 4,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,86</t>
+          <t>0,79; 3,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 0,56</t>
+          <t>-1,91; 0,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,75</t>
+          <t>0,05; 2,73</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 91,77</t>
+          <t>-27,24; 83,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 15,43</t>
+          <t>-59,52; 16,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,71; 47,21</t>
+          <t>-39,87; 51,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,32; 181,9</t>
+          <t>26,73; 189,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,71; 58,83</t>
+          <t>-34,2; 61,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>17,42; 147,18</t>
+          <t>15,91; 150,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,14; 104,02</t>
+          <t>15,24; 104,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-42,68; 15,76</t>
+          <t>-40,09; 18,54</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 78,15</t>
+          <t>0,34; 77,79</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 2,86</t>
+          <t>-1,65; 2,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,13</t>
+          <t>-1,96; 2,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,23</t>
+          <t>-0,04; 4,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,05</t>
+          <t>0,61; 5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 1,86</t>
+          <t>-2,63; 2,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,0</t>
+          <t>-2,4; 2,8</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,6</t>
+          <t>0,06; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 1,48</t>
+          <t>-1,44; 1,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 2,89</t>
+          <t>-0,3; 3,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 127,19</t>
+          <t>-39,49; 122,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 95,2</t>
+          <t>-42,91; 95,85</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 176,72</t>
+          <t>-3,37; 182,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,1; 136,83</t>
+          <t>6,86; 130,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 41,89</t>
+          <t>-41,12; 54,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 68,14</t>
+          <t>-36,38; 62,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 96,07</t>
+          <t>0,6; 99,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 42,12</t>
+          <t>-27,52; 43,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 80,01</t>
+          <t>-5,94; 84,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 3,34</t>
+          <t>-0,52; 3,19</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,5</t>
+          <t>-0,85; 2,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,79</t>
+          <t>1,03; 4,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 5,49</t>
+          <t>0,53; 5,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 1,79</t>
+          <t>-2,8; 1,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,46</t>
+          <t>-0,75; 3,7</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,94</t>
+          <t>0,73; 3,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 1,59</t>
+          <t>-1,37; 1,52</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,63</t>
+          <t>0,72; 3,53</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 130,46</t>
+          <t>-13,65; 131,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 104,36</t>
+          <t>-21,74; 103,01</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>18,62; 187,16</t>
+          <t>24,65; 191,93</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3,86; 92,42</t>
+          <t>6,82; 91,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,29; 31,23</t>
+          <t>-35,11; 31,78</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 60,17</t>
+          <t>-9,67; 66,05</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,85; 89,47</t>
+          <t>12,59; 86,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,06; 35,94</t>
+          <t>-23,83; 35,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,23; 82,87</t>
+          <t>11,43; 80,81</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,43</t>
+          <t>0,6; 2,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1775,37 +1775,37 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,05</t>
+          <t>1,1; 3,07</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,74</t>
+          <t>3,3; 5,74</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 1,74</t>
+          <t>-0,52; 1,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,42</t>
+          <t>1,2; 3,52</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,76</t>
+          <t>2,16; 3,81</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 1,18</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,61; 3,01</t>
+          <t>1,6; 3,03</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,73; 87,21</t>
+          <t>15,65; 97,16</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 41,12</t>
+          <t>-17,34; 40,33</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,9; 110,88</t>
+          <t>30,69; 113,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>57,19; 128,34</t>
+          <t>60,87; 133,53</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 40,31</t>
+          <t>-9,66; 39,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,13; 79,6</t>
+          <t>22,45; 81,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>48,08; 100,33</t>
+          <t>50,02; 104,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 31,82</t>
+          <t>-4,3; 33,43</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>36,63; 81,6</t>
+          <t>36,53; 82,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,07</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>8,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>6,02</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>4,69</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 5,35</t>
+          <t>1,3; 5,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,1; 12,57</t>
+          <t>0,38; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 12,37</t>
+          <t>2,48; 6,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 14,29</t>
+          <t>6,6; 11,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,6</t>
+          <t>2,32; 6,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 11,97</t>
+          <t>3,16; 6,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,08; 8,56</t>
+          <t>4,38; 7,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,21; 11,06</t>
+          <t>1,77; 4,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 10,13</t>
+          <t>3,39; 6,04</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>208,81%</t>
+          <t>170,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>712,12%</t>
+          <t>114,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>531,49%</t>
+          <t>243,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>879,13%</t>
+          <t>452,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>740,4%</t>
+          <t>223,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>849,07%</t>
+          <t>248,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>527,64%</t>
+          <t>317,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>725,63%</t>
+          <t>171,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>700,81%</t>
+          <t>246,87%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,57; 424,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,27; 317,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>86,5; 546,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>218,95; 940,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,61; 537,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>99,98; 522,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>31,01; —</t>
+          <t>166,89; 537,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,08; —</t>
+          <t>67,54; 330,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>94,17; —</t>
+          <t>128,0; 432,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>2,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,53</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,57</t>
+          <t>-1,39; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,03</t>
+          <t>-2,96; 0,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 7,03</t>
+          <t>-3,15; 0,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,3; 12,44</t>
+          <t>1,56; 6,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 6,49</t>
+          <t>-1,83; 1,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,36; 6,32</t>
+          <t>0,98; 4,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,15</t>
+          <t>0,79; 3,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,24</t>
+          <t>-1,91; 0,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,1</t>
+          <t>-1,22; 2,17</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>166,17%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>-33,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>228,3%</t>
+          <t>-23,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>417,94%</t>
+          <t>86,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>182,75%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>205,41%</t>
+          <t>67,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>298,29%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>122,63%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>216,49%</t>
+          <t>18,14%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,55; 441,9</t>
+          <t>-27,24; 83,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,46; 233,98</t>
+          <t>-59,52; 16,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>64,45; 523,84</t>
+          <t>-63,15; 21,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>180,9; 886,84</t>
+          <t>26,73; 189,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>45,94; 449,09</t>
+          <t>-34,2; 61,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,64; 478,3</t>
+          <t>16,1; 149,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>152,59; 550,14</t>
+          <t>15,24; 104,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,49; 281,67</t>
+          <t>-40,09; 18,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>103,17; 397,45</t>
+          <t>-23,2; 60,41</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,81</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,61</t>
+          <t>-1,65; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,43</t>
+          <t>-1,96; 2,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,61</t>
+          <t>-0,18; 4,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,19</t>
+          <t>0,61; 5,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,97</t>
+          <t>-2,63; 2,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,87</t>
+          <t>-4,48; 1,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,69</t>
+          <t>0,06; 3,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,63</t>
+          <t>-1,44; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,05; 2,73</t>
+          <t>-1,28; 2,51</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,92%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>57,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>-6,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>67,6%</t>
+          <t>-4,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-0,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>18,41%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 83,32</t>
+          <t>-39,49; 122,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 16,34</t>
+          <t>-42,91; 95,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 51,35</t>
+          <t>-7,17; 174,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,73; 189,85</t>
+          <t>6,86; 130,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 61,69</t>
+          <t>-41,12; 54,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,91; 150,55</t>
+          <t>-58,53; 41,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,24; 104,67</t>
+          <t>0,6; 99,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 18,54</t>
+          <t>-27,52; 43,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,34; 77,79</t>
+          <t>-24,31; 68,48</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>1,84</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,78</t>
+          <t>-0,52; 3,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,17</t>
+          <t>-0,85; 2,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 4,33</t>
+          <t>0,96; 4,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,77</t>
+          <t>0,53; 5,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,25</t>
+          <t>-2,8; 1,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,8</t>
+          <t>-1,58; 3,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,61</t>
+          <t>0,73; 3,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,64</t>
+          <t>-1,37; 1,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 3,02</t>
+          <t>0,38; 3,22</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>46,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>61,95%</t>
+          <t>84,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>57,95%</t>
+          <t>46,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>-7,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>14,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>46,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>35,99%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 122,67</t>
+          <t>-13,65; 131,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 95,85</t>
+          <t>-21,74; 103,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 182,03</t>
+          <t>21,92; 187,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 130,93</t>
+          <t>6,82; 91,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 54,28</t>
+          <t>-35,11; 31,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,38; 62,45</t>
+          <t>-19,14; 55,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,6; 99,36</t>
+          <t>12,59; 86,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 43,12</t>
+          <t>-23,83; 35,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 84,89</t>
+          <t>5,59; 71,76</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4,48</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,68</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>2,8</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,18</t>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,19</t>
+          <t>0,6; 2,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,37</t>
+          <t>-0,61; 1,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,77</t>
+          <t>0,34; 2,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,42</t>
+          <t>3,3; 5,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,8</t>
+          <t>-0,52; 1,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 3,7</t>
+          <t>0,5; 3,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,9</t>
+          <t>2,16; 3,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,52</t>
+          <t>-0,18; 1,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,53</t>
+          <t>0,9; 2,59</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-7,29%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>22,37%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>74,35%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 131,73</t>
+          <t>15,65; 97,16</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 103,01</t>
+          <t>-17,34; 40,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>24,65; 191,93</t>
+          <t>11,13; 98,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,82; 91,71</t>
+          <t>60,87; 133,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 31,78</t>
+          <t>-9,66; 39,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 66,05</t>
+          <t>9,7; 72,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,59; 86,49</t>
+          <t>50,02; 104,39</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 35,26</t>
+          <t>-4,3; 33,43</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>11,43; 80,81</t>
+          <t>20,62; 70,13</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>0,28</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>2,11</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>4,48</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>2,43</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>2,31</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 2,63</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,61; 1,14</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 3,07</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>3,3; 5,74</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 1,72</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 3,52</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 3,81</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,18; 1,25</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1,6; 3,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>45,68%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>8,74%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>66,09%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>92,29%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>13,99%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>50,1%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>74,35%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>12,09%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>57,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 97,16</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-17,34; 40,33</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>30,69; 113,2</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>60,87; 133,53</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 39,7</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>22,45; 81,86</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>50,02; 104,39</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 33,43</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>36,53; 82,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 5,32</t>
+          <t>1,28; 5,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,7</t>
+          <t>0,53; 3,8</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,52</t>
+          <t>2,53; 6,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,6; 11,75</t>
+          <t>6,72; 11,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,66</t>
+          <t>2,28; 7,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,63</t>
+          <t>3,31; 6,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,64</t>
+          <t>4,27; 7,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 4,67</t>
+          <t>1,83; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,04</t>
+          <t>3,36; 6,04</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>44,57; 424,12</t>
+          <t>44,93; 410,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,27; 317,26</t>
+          <t>13,04; 306,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,5; 546,32</t>
+          <t>95,49; 543,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>218,95; 940,4</t>
+          <t>209,07; 863,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,61; 537,36</t>
+          <t>71,75; 523,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>99,98; 522,12</t>
+          <t>102,14; 521,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>166,89; 537,08</t>
+          <t>170,08; 570,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,54; 330,95</t>
+          <t>69,88; 339,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>128,0; 432,07</t>
+          <t>128,94; 433,07</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,61</t>
+          <t>-1,13; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 0,43</t>
+          <t>-3,09; 0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,76</t>
+          <t>-3,26; 0,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 6,19</t>
+          <t>1,74; 6,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 1,97</t>
+          <t>-1,74; 2,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 4,89</t>
+          <t>0,95; 4,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,69</t>
+          <t>0,85; 3,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,63</t>
+          <t>-1,8; 0,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,17</t>
+          <t>-1,31; 2,1</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 83,32</t>
+          <t>-24,89; 98,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,52; 16,34</t>
+          <t>-61,7; 12,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,15; 21,94</t>
+          <t>-60,34; 27,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 189,85</t>
+          <t>30,83; 186,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 61,69</t>
+          <t>-34,2; 67,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 149,96</t>
+          <t>17,48; 152,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 104,67</t>
+          <t>17,46; 113,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,09; 18,54</t>
+          <t>-37,69; 23,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 60,41</t>
+          <t>-25,4; 56,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,78</t>
+          <t>-1,65; 2,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 2,17</t>
+          <t>-1,73; 2,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 4,1</t>
+          <t>-0,2; 4,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,77</t>
+          <t>0,48; 6,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,25</t>
+          <t>-2,66; 2,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 1,91</t>
+          <t>-3,83; 2,33</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 3,61</t>
+          <t>0,25; 3,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,64</t>
+          <t>-1,52; 1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 2,51</t>
+          <t>-1,58; 2,39</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,49; 122,67</t>
+          <t>-36,94; 138,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 95,85</t>
+          <t>-40,22; 105,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 174,93</t>
+          <t>-5,32; 192,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 130,93</t>
+          <t>7,09; 142,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-41,12; 54,28</t>
+          <t>-40,23; 50,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,53; 41,35</t>
+          <t>-52,66; 52,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 99,36</t>
+          <t>1,95; 101,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 43,12</t>
+          <t>-29,89; 44,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-24,31; 68,48</t>
+          <t>-29,71; 63,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,19</t>
+          <t>-0,52; 3,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,37</t>
+          <t>-1,25; 2,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,73</t>
+          <t>0,85; 4,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,42</t>
+          <t>0,81; 5,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,8</t>
+          <t>-2,67; 1,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,1</t>
+          <t>-1,33; 3,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,9</t>
+          <t>0,83; 3,84</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 1,52</t>
+          <t>-1,38; 1,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,22</t>
+          <t>0,46; 3,4</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 131,73</t>
+          <t>-14,55; 137,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 103,01</t>
+          <t>-31,72; 92,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,92; 187,78</t>
+          <t>15,48; 189,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,82; 91,71</t>
+          <t>9,07; 97,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,11; 31,78</t>
+          <t>-33,42; 33,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,14; 55,75</t>
+          <t>-16,37; 53,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,59; 86,49</t>
+          <t>13,39; 89,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 35,26</t>
+          <t>-24,52; 34,03</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,59; 71,76</t>
+          <t>7,59; 75,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,63</t>
+          <t>0,48; 2,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,14</t>
+          <t>-0,73; 1,08</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,65</t>
+          <t>0,39; 2,75</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,3; 5,74</t>
+          <t>3,2; 5,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,72</t>
+          <t>-0,39; 1,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,18</t>
+          <t>0,35; 3,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,81</t>
+          <t>2,15; 3,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 1,25</t>
+          <t>-0,3; 1,19</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,59</t>
+          <t>0,85; 2,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,65; 97,16</t>
+          <t>12,65; 87,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 40,33</t>
+          <t>-18,86; 37,89</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,13; 98,63</t>
+          <t>12,19; 101,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>60,87; 133,53</t>
+          <t>59,61; 133,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 39,7</t>
+          <t>-7,65; 41,35</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>9,7; 72,29</t>
+          <t>7,59; 70,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>50,02; 104,39</t>
+          <t>47,49; 99,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 33,43</t>
+          <t>-6,76; 31,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,62; 70,13</t>
+          <t>21,51; 71,03</t>
         </is>
       </c>
     </row>
